--- a/Document/WBS.xlsx
+++ b/Document/WBS.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="進捗管理表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>作成日：</t>
     <rPh sb="0" eb="3">
@@ -372,6 +372,30 @@
     <t>10_シーケンス図</t>
     <rPh sb="8" eb="9">
       <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他環境</t>
+    <rPh sb="2" eb="3">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディレクトリトラバーサル対策</t>
+    <rPh sb="12" eb="14">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションハイジャック対策</t>
+    <rPh sb="11" eb="13">
+      <t>タイサク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -616,13 +640,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -637,25 +658,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -676,14 +748,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -706,58 +772,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1064,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31:M31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1076,55 +1100,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="24">
+      <c r="I1" s="59">
         <v>42456</v>
       </c>
-      <c r="J1" s="20"/>
+      <c r="J1" s="57"/>
       <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="20"/>
+      <c r="M1" s="57"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="59">
         <v>42456</v>
       </c>
-      <c r="J2" s="20"/>
+      <c r="J2" s="57"/>
       <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="20"/>
+      <c r="M2" s="57"/>
       <c r="N2" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -1136,57 +1160,57 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20" t="s">
+      <c r="C5" s="57"/>
+      <c r="D5" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20" t="s">
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
@@ -1232,676 +1256,853 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
-        <f>COUNTA(E12:E35)</f>
-        <v>24</v>
+        <f>COUNTA(E12:E100)</f>
+        <v>26</v>
       </c>
       <c r="B10" s="9">
-        <f ca="1">COUNTIF(N12:N35, "★")</f>
-        <v>9</v>
+        <f ca="1">COUNTIF(N12:N100, "★")</f>
+        <v>10</v>
       </c>
       <c r="C10" s="9">
-        <f ca="1">COUNTIF(N12:N35, "☆")</f>
+        <f ca="1">COUNTIF(N12:N100, "☆")</f>
         <v>0</v>
       </c>
       <c r="D10" s="10">
         <f ca="1">B10 / A10</f>
-        <v>0.375</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="N10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20" t="s">
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20" t="s">
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20" t="s">
+      <c r="I11" s="57"/>
+      <c r="J11" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20" t="s">
+      <c r="K11" s="57"/>
+      <c r="L11" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="20"/>
+      <c r="M11" s="57"/>
       <c r="N11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="17" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="15" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="13">
+      <c r="I12" s="15"/>
+      <c r="J12" s="49">
         <v>42442</v>
       </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="13">
+      <c r="K12" s="20"/>
+      <c r="L12" s="49">
         <v>42442</v>
       </c>
-      <c r="M12" s="25"/>
+      <c r="M12" s="20"/>
       <c r="N12" s="5" t="str">
         <f ca="1">IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 4)) = "", "", IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 2)) = "", "☆", "★"))</f>
         <v>★</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="17" t="s">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="15" t="s">
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="13">
+      <c r="I13" s="15"/>
+      <c r="J13" s="49">
         <v>42442</v>
       </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="13">
+      <c r="K13" s="20"/>
+      <c r="L13" s="49">
         <v>42442</v>
       </c>
-      <c r="M13" s="25"/>
+      <c r="M13" s="20"/>
       <c r="N13" s="5" t="str">
-        <f t="shared" ref="N13:N36" ca="1" si="0">IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 4)) = "", "", IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 2)) = "", "☆", "★"))</f>
+        <f t="shared" ref="N13:N41" ca="1" si="0">IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 4)) = "", "", IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 2)) = "", "☆", "★"))</f>
         <v>★</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="17" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="15" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="13">
+      <c r="I14" s="15"/>
+      <c r="J14" s="49">
         <v>42442</v>
       </c>
-      <c r="K14" s="25"/>
-      <c r="L14" s="13">
+      <c r="K14" s="20"/>
+      <c r="L14" s="49">
         <v>42442</v>
       </c>
-      <c r="M14" s="25"/>
+      <c r="M14" s="20"/>
       <c r="N14" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="17" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="15" t="s">
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="13">
+      <c r="I15" s="15"/>
+      <c r="J15" s="49">
         <v>42442</v>
       </c>
-      <c r="K15" s="25"/>
-      <c r="L15" s="13">
+      <c r="K15" s="20"/>
+      <c r="L15" s="49">
         <v>42442</v>
       </c>
-      <c r="M15" s="25"/>
+      <c r="M15" s="20"/>
       <c r="N15" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="17" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="15" t="s">
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="13">
+      <c r="I16" s="15"/>
+      <c r="J16" s="49">
         <v>42456</v>
       </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="13">
+      <c r="K16" s="60"/>
+      <c r="L16" s="49">
         <v>42456</v>
       </c>
-      <c r="M16" s="14"/>
+      <c r="M16" s="60"/>
       <c r="N16" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="17" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="25"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="20"/>
       <c r="N17" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="17" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="25"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="20"/>
       <c r="N18" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="17" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="25"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="20"/>
       <c r="N19" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="17" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="25"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="20"/>
       <c r="N20" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="17" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="15" t="s">
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="13">
+      <c r="I21" s="15"/>
+      <c r="J21" s="49">
         <v>42456</v>
       </c>
-      <c r="K21" s="25"/>
-      <c r="L21" s="13">
+      <c r="K21" s="20"/>
+      <c r="L21" s="49">
         <v>42456</v>
       </c>
-      <c r="M21" s="25"/>
+      <c r="M21" s="20"/>
       <c r="N21" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="36" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="42"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="56"/>
       <c r="N22" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="17" t="s">
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="25"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="17" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="25"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="20"/>
       <c r="N24" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="17" t="s">
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="15" t="s">
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="16"/>
-      <c r="J25" s="13">
+      <c r="I25" s="15"/>
+      <c r="J25" s="49">
         <v>42452</v>
       </c>
-      <c r="K25" s="25"/>
-      <c r="L25" s="13">
+      <c r="K25" s="20"/>
+      <c r="L25" s="49">
         <v>42452</v>
       </c>
-      <c r="M25" s="25"/>
+      <c r="M25" s="20"/>
       <c r="N25" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="17" t="s">
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="25"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="20"/>
       <c r="N26" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="17" t="s">
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="25"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="20"/>
       <c r="N27" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="17" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="25"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="20"/>
       <c r="N28" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="17" t="s">
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="25"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="20"/>
       <c r="N29" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="43" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="46" t="s">
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I30" s="47"/>
-      <c r="J30" s="48">
+      <c r="I30" s="25"/>
+      <c r="J30" s="42">
         <v>42453</v>
       </c>
-      <c r="K30" s="49"/>
-      <c r="L30" s="48">
+      <c r="K30" s="27"/>
+      <c r="L30" s="42">
         <v>42453</v>
       </c>
-      <c r="M30" s="49"/>
+      <c r="M30" s="27"/>
       <c r="N30" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="50" t="s">
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="51"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="21" t="s">
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="60">
+      <c r="I31" s="35"/>
+      <c r="J31" s="41">
         <v>42456</v>
       </c>
-      <c r="K31" s="54"/>
-      <c r="L31" s="60">
+      <c r="K31" s="37"/>
+      <c r="L31" s="41">
         <v>42456</v>
       </c>
-      <c r="M31" s="54"/>
+      <c r="M31" s="37"/>
       <c r="N31" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="50" t="s">
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="51"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="54"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="37"/>
       <c r="N32" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="50" t="s">
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="51"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="54"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="37"/>
       <c r="N33" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="50" t="s">
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="51"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="54"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="37"/>
       <c r="N34" s="4" t="str">
         <f ca="1">IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 4)) = "", "", IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 2)) = "", "☆", "★"))</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="43" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="44"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="49"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="27"/>
       <c r="N35" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="25"/>
+      <c r="A36" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="15"/>
+      <c r="J36" s="49">
+        <v>42456</v>
+      </c>
+      <c r="K36" s="20"/>
+      <c r="L36" s="49">
+        <v>42456</v>
+      </c>
+      <c r="M36" s="20"/>
       <c r="N36" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
+        <v>★</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="129">
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="A31:D31"/>
+  <mergeCells count="154">
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A12:D21"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="J30:K30"/>
@@ -1926,81 +2127,36 @@
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="A12:D21"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="A35:D35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/WBS.xlsx
+++ b/Document/WBS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>作成日：</t>
     <rPh sb="0" eb="3">
@@ -106,13 +106,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作業ファイル</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
@@ -396,6 +389,39 @@
     <t>セッションハイジャック対策</t>
     <rPh sb="11" eb="13">
       <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Viewディレクトリのみ公開にする</t>
+    <rPh sb="12" eb="14">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業ファイル/作業場所</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品画像を用意する</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -612,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -658,7 +684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -679,9 +705,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -709,9 +732,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -748,7 +768,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1090,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:D30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1100,55 +1120,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="59">
+      <c r="I1" s="57">
         <v>42456</v>
       </c>
-      <c r="J1" s="57"/>
+      <c r="J1" s="55"/>
       <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="57"/>
+      <c r="M1" s="55"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="35"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="59">
+      <c r="I2" s="57">
         <v>42456</v>
       </c>
-      <c r="J2" s="57"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="57"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -1160,57 +1180,57 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57" t="s">
+      <c r="C5" s="55"/>
+      <c r="D5" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
@@ -1230,16 +1250,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>48</v>
-      </c>
       <c r="D9" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1251,17 +1271,17 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <f>COUNTA(E12:E100)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="9">
         <f ca="1">COUNTIF(N12:N100, "★")</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9">
         <f ca="1">COUNTIF(N12:N100, "☆")</f>
@@ -1269,61 +1289,61 @@
       </c>
       <c r="D10" s="10">
         <f ca="1">B10 / A10</f>
-        <v>0.38461538461538464</v>
+        <v>0.5</v>
       </c>
       <c r="N10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57" t="s">
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57" t="s">
+      <c r="I11" s="55"/>
+      <c r="J11" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57" t="s">
+      <c r="K11" s="55"/>
+      <c r="L11" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57" t="s">
+      <c r="M11" s="55"/>
+      <c r="N11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="57"/>
-      <c r="N11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="16" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="18"/>
       <c r="H12" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" s="15"/>
-      <c r="J12" s="49">
+      <c r="J12" s="19">
         <v>42442</v>
       </c>
       <c r="K12" s="20"/>
-      <c r="L12" s="49">
+      <c r="L12" s="19">
         <v>42442</v>
       </c>
       <c r="M12" s="20"/>
@@ -1333,24 +1353,24 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="18"/>
       <c r="H13" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I13" s="15"/>
-      <c r="J13" s="49">
+      <c r="J13" s="19">
         <v>42442</v>
       </c>
       <c r="K13" s="20"/>
-      <c r="L13" s="49">
+      <c r="L13" s="19">
         <v>42442</v>
       </c>
       <c r="M13" s="20"/>
@@ -1360,24 +1380,24 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="46"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="18"/>
       <c r="H14" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" s="15"/>
-      <c r="J14" s="49">
+      <c r="J14" s="19">
         <v>42442</v>
       </c>
       <c r="K14" s="20"/>
-      <c r="L14" s="49">
+      <c r="L14" s="19">
         <v>42442</v>
       </c>
       <c r="M14" s="20"/>
@@ -1387,24 +1407,24 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="18"/>
       <c r="H15" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I15" s="15"/>
-      <c r="J15" s="49">
+      <c r="J15" s="19">
         <v>42442</v>
       </c>
       <c r="K15" s="20"/>
-      <c r="L15" s="49">
+      <c r="L15" s="19">
         <v>42442</v>
       </c>
       <c r="M15" s="20"/>
@@ -1414,47 +1434,47 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="18"/>
       <c r="H16" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="15"/>
-      <c r="J16" s="49">
+      <c r="J16" s="19">
         <v>42456</v>
       </c>
-      <c r="K16" s="60"/>
-      <c r="L16" s="49">
+      <c r="K16" s="58"/>
+      <c r="L16" s="19">
         <v>42456</v>
       </c>
-      <c r="M16" s="60"/>
+      <c r="M16" s="58"/>
       <c r="N16" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="46"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46"/>
       <c r="E17" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="18"/>
       <c r="H17" s="13"/>
       <c r="I17" s="15"/>
-      <c r="J17" s="19"/>
+      <c r="J17" s="47"/>
       <c r="K17" s="20"/>
-      <c r="L17" s="19"/>
+      <c r="L17" s="47"/>
       <c r="M17" s="20"/>
       <c r="N17" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1462,20 +1482,20 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="18"/>
       <c r="H18" s="13"/>
       <c r="I18" s="15"/>
-      <c r="J18" s="19"/>
+      <c r="J18" s="47"/>
       <c r="K18" s="20"/>
-      <c r="L18" s="19"/>
+      <c r="L18" s="47"/>
       <c r="M18" s="20"/>
       <c r="N18" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1483,20 +1503,20 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
       <c r="E19" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="18"/>
       <c r="H19" s="13"/>
       <c r="I19" s="15"/>
-      <c r="J19" s="19"/>
+      <c r="J19" s="47"/>
       <c r="K19" s="20"/>
-      <c r="L19" s="19"/>
+      <c r="L19" s="47"/>
       <c r="M19" s="20"/>
       <c r="N19" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1504,20 +1524,20 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="46"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
       <c r="E20" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="18"/>
       <c r="H20" s="13"/>
       <c r="I20" s="15"/>
-      <c r="J20" s="19"/>
+      <c r="J20" s="47"/>
       <c r="K20" s="20"/>
-      <c r="L20" s="19"/>
+      <c r="L20" s="47"/>
       <c r="M20" s="20"/>
       <c r="N20" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1525,24 +1545,24 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="18"/>
       <c r="H21" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I21" s="15"/>
-      <c r="J21" s="49">
+      <c r="J21" s="19">
         <v>42456</v>
       </c>
       <c r="K21" s="20"/>
-      <c r="L21" s="49">
+      <c r="L21" s="19">
         <v>42456</v>
       </c>
       <c r="M21" s="20"/>
@@ -1552,43 +1572,43 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="50" t="s">
+      <c r="F22" s="49"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="18"/>
       <c r="H23" s="13"/>
       <c r="I23" s="15"/>
-      <c r="J23" s="19"/>
+      <c r="J23" s="47"/>
       <c r="K23" s="20"/>
-      <c r="L23" s="19"/>
+      <c r="L23" s="47"/>
       <c r="M23" s="20"/>
       <c r="N23" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1596,20 +1616,20 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="46"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="18"/>
       <c r="H24" s="13"/>
       <c r="I24" s="15"/>
-      <c r="J24" s="19"/>
+      <c r="J24" s="47"/>
       <c r="K24" s="20"/>
-      <c r="L24" s="19"/>
+      <c r="L24" s="47"/>
       <c r="M24" s="20"/>
       <c r="N24" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1617,24 +1637,24 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
       <c r="H25" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I25" s="15"/>
-      <c r="J25" s="49">
+      <c r="J25" s="19">
         <v>42452</v>
       </c>
       <c r="K25" s="20"/>
-      <c r="L25" s="49">
+      <c r="L25" s="19">
         <v>42452</v>
       </c>
       <c r="M25" s="20"/>
@@ -1644,20 +1664,20 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="46"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="18"/>
       <c r="H26" s="13"/>
       <c r="I26" s="15"/>
-      <c r="J26" s="19"/>
+      <c r="J26" s="47"/>
       <c r="K26" s="20"/>
-      <c r="L26" s="19"/>
+      <c r="L26" s="47"/>
       <c r="M26" s="20"/>
       <c r="N26" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1665,20 +1685,20 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="18"/>
       <c r="H27" s="13"/>
       <c r="I27" s="15"/>
-      <c r="J27" s="19"/>
+      <c r="J27" s="47"/>
       <c r="K27" s="20"/>
-      <c r="L27" s="19"/>
+      <c r="L27" s="47"/>
       <c r="M27" s="20"/>
       <c r="N27" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1686,20 +1706,20 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="46"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="48"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="18"/>
       <c r="H28" s="13"/>
       <c r="I28" s="15"/>
-      <c r="J28" s="19"/>
+      <c r="J28" s="47"/>
       <c r="K28" s="20"/>
-      <c r="L28" s="19"/>
+      <c r="L28" s="47"/>
       <c r="M28" s="20"/>
       <c r="N28" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1707,20 +1727,20 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="46"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="48"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="18"/>
       <c r="H29" s="13"/>
       <c r="I29" s="15"/>
-      <c r="J29" s="19"/>
+      <c r="J29" s="47"/>
       <c r="K29" s="20"/>
-      <c r="L29" s="19"/>
+      <c r="L29" s="47"/>
       <c r="M29" s="20"/>
       <c r="N29" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1728,174 +1748,198 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="23"/>
       <c r="H30" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I30" s="25"/>
-      <c r="J30" s="42">
+      <c r="J30" s="40">
         <v>42453</v>
       </c>
-      <c r="K30" s="27"/>
-      <c r="L30" s="42">
+      <c r="K30" s="26"/>
+      <c r="L30" s="40">
         <v>42453</v>
       </c>
-      <c r="M30" s="27"/>
+      <c r="M30" s="26"/>
       <c r="N30" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="31"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="34"/>
+      <c r="J31" s="39">
+        <v>42456</v>
+      </c>
+      <c r="K31" s="35"/>
+      <c r="L31" s="39">
+        <v>42456</v>
+      </c>
+      <c r="M31" s="35"/>
+      <c r="N31" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>★</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A32" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="41">
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="31"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="34"/>
+      <c r="J32" s="39">
         <v>42456</v>
       </c>
-      <c r="K31" s="37"/>
-      <c r="L31" s="41">
+      <c r="K32" s="35"/>
+      <c r="L32" s="39">
         <v>42456</v>
       </c>
-      <c r="M31" s="37"/>
-      <c r="N31" s="4" t="str">
+      <c r="M32" s="35"/>
+      <c r="N32" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>★</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="38" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A33" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="38" t="s">
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="34"/>
+      <c r="J33" s="39">
+        <v>42456</v>
+      </c>
+      <c r="K33" s="35"/>
+      <c r="L33" s="39">
+        <v>42456</v>
+      </c>
+      <c r="M33" s="35"/>
+      <c r="N33" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>★</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A34" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="34"/>
+      <c r="J34" s="39">
+        <v>42456</v>
+      </c>
+      <c r="K34" s="35"/>
+      <c r="L34" s="39">
+        <v>42456</v>
+      </c>
+      <c r="M34" s="35"/>
       <c r="N34" s="4" t="str">
         <f ca="1">IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 4)) = "", "", IF(INDIRECT(ADDRESS(ROW(), COLUMN() - 2)) = "", "☆", "★"))</f>
-        <v/>
+        <v>★</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="30"/>
+      <c r="A35" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="23"/>
-      <c r="H35" s="24"/>
+      <c r="H35" s="24" t="s">
+        <v>20</v>
+      </c>
       <c r="I35" s="25"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="27"/>
+      <c r="J35" s="40">
+        <v>42456</v>
+      </c>
+      <c r="K35" s="26"/>
+      <c r="L35" s="40">
+        <v>42456</v>
+      </c>
+      <c r="M35" s="26"/>
       <c r="N35" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>★</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="15"/>
       <c r="E36" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="18"/>
       <c r="H36" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I36" s="15"/>
-      <c r="J36" s="49">
+      <c r="J36" s="19">
         <v>42456</v>
       </c>
       <c r="K36" s="20"/>
-      <c r="L36" s="49">
+      <c r="L36" s="19">
         <v>42456</v>
       </c>
       <c r="M36" s="20"/>
@@ -1910,15 +1954,15 @@
       <c r="C37" s="14"/>
       <c r="D37" s="15"/>
       <c r="E37" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="18"/>
       <c r="H37" s="13"/>
       <c r="I37" s="15"/>
-      <c r="J37" s="19"/>
+      <c r="J37" s="47"/>
       <c r="K37" s="20"/>
-      <c r="L37" s="19"/>
+      <c r="L37" s="47"/>
       <c r="M37" s="20"/>
       <c r="N37" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1930,14 +1974,16 @@
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="16"/>
+      <c r="E38" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="F38" s="17"/>
       <c r="G38" s="18"/>
       <c r="H38" s="13"/>
       <c r="I38" s="15"/>
-      <c r="J38" s="19"/>
+      <c r="J38" s="47"/>
       <c r="K38" s="20"/>
-      <c r="L38" s="19"/>
+      <c r="L38" s="47"/>
       <c r="M38" s="20"/>
       <c r="N38" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1949,14 +1995,16 @@
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="16"/>
+      <c r="E39" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="F39" s="17"/>
       <c r="G39" s="18"/>
       <c r="H39" s="13"/>
       <c r="I39" s="15"/>
-      <c r="J39" s="19"/>
+      <c r="J39" s="47"/>
       <c r="K39" s="20"/>
-      <c r="L39" s="19"/>
+      <c r="L39" s="47"/>
       <c r="M39" s="20"/>
       <c r="N39" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1973,9 +2021,9 @@
       <c r="G40" s="18"/>
       <c r="H40" s="13"/>
       <c r="I40" s="15"/>
-      <c r="J40" s="19"/>
+      <c r="J40" s="47"/>
       <c r="K40" s="20"/>
-      <c r="L40" s="19"/>
+      <c r="L40" s="47"/>
       <c r="M40" s="20"/>
       <c r="N40" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1992,9 +2040,9 @@
       <c r="G41" s="18"/>
       <c r="H41" s="13"/>
       <c r="I41" s="15"/>
-      <c r="J41" s="19"/>
+      <c r="J41" s="47"/>
       <c r="K41" s="20"/>
-      <c r="L41" s="19"/>
+      <c r="L41" s="47"/>
       <c r="M41" s="20"/>
       <c r="N41" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
